--- a/doc/50_単体テスト(UT)/02_エビデンス/JY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/JY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenic\Downloads\certificate-online-dev\doc\50_単体テスト(UT)\02_エビデンス\CSU_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62cc9ac9674436fa/デスクトップ/Java/colpro_workspace/certificate-online/doc/50_単体テスト(UT)/02_エビデンス/JY_USER02_会員登録画面_エビデンス/打鍵後のUCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3A8385-7F6F-4C8B-A348-5B0FB3E8963D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FF3A8385-7F6F-4C8B-A348-5B0FB3E8963D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B23829AD-D5C1-4C49-8E86-641BCCA880FA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="0" windowWidth="22752" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ケース一覧" sheetId="5" r:id="rId1"/>
@@ -398,14 +398,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EB陳</t>
-    <rPh sb="2" eb="3">
-      <t>チン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>B-画面項目確認.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>EB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>季祎</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -413,7 +422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +468,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -560,7 +576,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -910,7 +926,7 @@
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1021,10 +1037,10 @@
         <v>45069</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="L4" s="1"/>
     </row>
